--- a/data/trans_camb/P16B06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,21</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,19; 81,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,39; 78,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; 78,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,39; 78,47</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,68%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,77; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,67; 428,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; 376,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,67; 428,26</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-51,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,96</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,71; 25,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,29; 6,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,18; 14,52</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,25; 34,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 95,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,58; 7,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,84; 16,79</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 48,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 44,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,7; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; 7,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,99%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 94,39</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 80,49</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,7; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,44; 8,42</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 48,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,2; 40,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,44; 13,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 13,28</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 94,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,24; 64,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; 15,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 15,84</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 65,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 65,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,57; -1,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 18,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 18,52</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 189,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 188,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,57; -1,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 23,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; 22,7</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 12,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 12,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 11,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 9,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 8,35</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 14,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 13,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 13,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 10,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 9,28</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 16,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 14,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 7,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 6,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 6,8</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 19,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 17,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 8,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 6,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 9,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 7,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,06</t>
+          <t>0,0; 31,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 12,44</t>
+          <t>-15,88; 17,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 12,13</t>
+          <t>0,0; 17,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 11,43</t>
+          <t>-2,85; 17,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,26; 9,74</t>
+          <t>1,96; 14,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,35</t>
+          <t>-3,27; 12,28</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,04</t>
+          <t>0,0; 45,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 14,6</t>
+          <t>-15,93; 22,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 13,99</t>
+          <t>0,0; 21,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 13,26</t>
+          <t>-2,85; 21,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,26; 10,83</t>
+          <t>2,0; 17,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 9,28</t>
+          <t>-3,32; 15,15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 16,2</t>
+          <t>0,0; 26,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,6</t>
+          <t>0,0; 24,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,87</t>
+          <t>-2,77; 15,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,12</t>
+          <t>-4,28; 14,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,47</t>
+          <t>-1,21; 12,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,8</t>
+          <t>-1,62; 12,16</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>0,0; 35,26</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 32,66</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 19,36</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 17,62</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 13,82</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 14,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>6,82</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 16,2</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 14,6</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 7,87</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 6,12</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 8,47</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 6,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,16; 19,59</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-2,05; 17,99</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,65; 8,68</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-2,86; 6,76</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,87; 9,38</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-1,33; 7,61</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Edad-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 81,34</t>
+          <t>-28,41; 79,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 78,47</t>
+          <t>-37,99; 79,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 78,63</t>
+          <t>-26,33; 77,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 78,47</t>
+          <t>-37,99; 79,03</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,77; —</t>
+          <t>-32,51; 391,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 428,26</t>
+          <t>-41,05; 454,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 376,93</t>
+          <t>-28,96; 366,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 428,26</t>
+          <t>-41,05; 454,0</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-79,71; 25,41</t>
+          <t>-73,24; 25,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,14</t>
+          <t>0,0; 53,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 6,69</t>
+          <t>-64,15; 6,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 14,52</t>
+          <t>-39,06; 14,32</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,25; 34,13</t>
+          <t>-80,13; 34,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 95,12</t>
+          <t>0,0; 115,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,58; 7,29</t>
+          <t>-66,79; 7,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 16,79</t>
+          <t>-42,2; 16,51</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,64</t>
+          <t>0,0; 48,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,6</t>
+          <t>0,0; 44,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,31</t>
+          <t>0,0; 17,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 7,82</t>
+          <t>-14,93; 7,46</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 94,39</t>
+          <t>0,0; 93,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,49</t>
+          <t>0,0; 80,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,42</t>
+          <t>0,0; 21,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 8,42</t>
+          <t>-15,96; 8,05</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,77</t>
+          <t>0,0; 48,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 40,0</t>
+          <t>-11,8; 40,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,22</t>
+          <t>0,0; 24,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 13,46</t>
+          <t>-11,23; 12,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,56</t>
+          <t>0,0; 20,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 13,28</t>
+          <t>-8,57; 13,2</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 94,57</t>
+          <t>0,0; 95,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 64,58</t>
+          <t>-11,87; 79,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,35</t>
+          <t>0,0; 31,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 15,87</t>
+          <t>-11,33; 15,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,88</t>
+          <t>0,0; 26,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 15,84</t>
+          <t>-8,99; 15,89</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,58</t>
+          <t>0,0; 63,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,76</t>
+          <t>0,0; 63,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,0</t>
+          <t>-16,29; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,63</t>
+          <t>-13,73; -1,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 18,76</t>
+          <t>-4,84; 19,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 18,52</t>
+          <t>-4,61; 18,71</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 189,47</t>
+          <t>0,0; 170,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 188,01</t>
+          <t>0,0; 169,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,0</t>
+          <t>-16,29; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,63</t>
+          <t>-13,73; -1,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 23,5</t>
+          <t>-3,97; 25,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 22,7</t>
+          <t>-5,17; 23,38</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,35</t>
+          <t>0,0; 31,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 17,51</t>
+          <t>-15,8; 18,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,94</t>
+          <t>0,0; 19,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 17,68</t>
+          <t>-1,47; 15,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,96; 14,8</t>
+          <t>1,95; 15,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 12,28</t>
+          <t>-2,91; 12,91</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,67</t>
+          <t>0,0; 45,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 22,55</t>
+          <t>-15,85; 21,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,86</t>
+          <t>0,0; 23,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 21,45</t>
+          <t>-1,47; 18,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,0; 17,38</t>
+          <t>1,99; 18,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 15,15</t>
+          <t>-2,6; 15,1</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,07</t>
+          <t>0,0; 22,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,62</t>
+          <t>0,0; 23,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 15,76</t>
+          <t>-2,76; 15,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 14,98</t>
+          <t>-4,27; 12,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 12,03</t>
+          <t>-1,21; 12,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 12,16</t>
+          <t>-1,91; 11,45</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,26</t>
+          <t>0,0; 29,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,66</t>
+          <t>0,0; 30,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 19,36</t>
+          <t>-2,76; 17,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 17,62</t>
+          <t>-4,27; 13,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 13,82</t>
+          <t>-1,21; 14,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 14,25</t>
+          <t>-1,68; 13,16</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,09; 16,2</t>
+          <t>-0,22; 16,48</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,6</t>
+          <t>-2,77; 14,91</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,87</t>
+          <t>-0,69; 7,49</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,12</t>
+          <t>-3,04; 5,62</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,47</t>
+          <t>0,7; 8,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,8</t>
+          <t>-1,47; 6,59</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,16; 19,59</t>
+          <t>-0,2; 20,33</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 17,99</t>
+          <t>-2,93; 17,82</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,68</t>
+          <t>-0,71; 8,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,76</t>
+          <t>-3,12; 6,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,38</t>
+          <t>0,76; 9,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,61</t>
+          <t>-1,51; 7,35</t>
         </is>
       </c>
     </row>
